--- a/Acme/data/TC001.xlsx
+++ b/Acme/data/TC001.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K3"/>
 </workbook>
 </file>
 
@@ -398,7 +397,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
